--- a/Descargas/R15_14º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Noviembre.xlsx
+++ b/Descargas/R15_14º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Noviembre.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B27" s="65">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
